--- a/pages/bang-luong.xlsx
+++ b/pages/bang-luong.xlsx
@@ -41,7 +41,25 @@
     <t>Ngày chấm công</t>
   </si>
   <si>
-    <t>ML1570075152</t>
+    <t>ML1722820555</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Thanh</t>
+  </si>
+  <si>
+    <t>Phó giám đốc</t>
+  </si>
+  <si>
+    <t>19,600,000vnđ</t>
+  </si>
+  <si>
+    <t>18,042,000vnđ</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>ML1721639805</t>
   </si>
   <si>
     <t>Nguyễn Minh Thông</t>
@@ -50,145 +68,127 @@
     <t>Giám đốc</t>
   </si>
   <si>
-    <t>18,600,000vnđ</t>
-  </si>
-  <si>
-    <t>17,407,000vnđ</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>ML1570267241</t>
-  </si>
-  <si>
-    <t>19,800,000vnđ</t>
-  </si>
-  <si>
-    <t>20,026,000vnđ</t>
-  </si>
-  <si>
-    <t>2023-11-05</t>
-  </si>
-  <si>
-    <t>ML1570267671</t>
-  </si>
-  <si>
-    <t>13,800,000vnđ</t>
-  </si>
-  <si>
-    <t>13,186,000vnđ</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>ML1570355932</t>
+    <t>21,000,000vnđ</t>
+  </si>
+  <si>
+    <t>19,295,000vnđ</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>ML1722820599</t>
+  </si>
+  <si>
+    <t>ML1721375410</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Sơn</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>8,050,000vnđ</t>
+  </si>
+  <si>
+    <t>8,704,750vnđ</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>ML1722820348</t>
+  </si>
+  <si>
+    <t>7,704,750vnđ</t>
+  </si>
+  <si>
+    <t>ML1721360860</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Phương</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>ML1722820539</t>
+  </si>
+  <si>
+    <t>ML1722820572</t>
+  </si>
+  <si>
+    <t>Trần Thị Bích Nhi</t>
+  </si>
+  <si>
+    <t>ML1722820634</t>
+  </si>
+  <si>
+    <t>Trần Diễm My</t>
+  </si>
+  <si>
+    <t>ML1721183309</t>
+  </si>
+  <si>
+    <t>Bùi Phương Huy</t>
+  </si>
+  <si>
+    <t>8,854,750vnđ</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>ML1722820655</t>
+  </si>
+  <si>
+    <t>ML1722820610</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tính</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>10,850,000vnđ</t>
+  </si>
+  <si>
+    <t>10,210,750vnđ</t>
+  </si>
+  <si>
+    <t>ML1722820623</t>
+  </si>
+  <si>
+    <t>ML1721210318</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim Yến Oanh</t>
+  </si>
+  <si>
+    <t>10,710,750vnđ</t>
+  </si>
+  <si>
+    <t>ML1722820777</t>
+  </si>
+  <si>
+    <t>14,710,750vnđ</t>
+  </si>
+  <si>
+    <t>ML1722820586</t>
   </si>
   <si>
     <t>Trần Mai Phương</t>
   </si>
   <si>
-    <t>9,240,000vnđ</t>
-  </si>
-  <si>
-    <t>9,074,800vnđ</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>ML1571390955</t>
+    <t>Phó phòng</t>
   </si>
   <si>
     <t>9,800,000vnđ</t>
   </si>
   <si>
-    <t>10,621,000vnđ</t>
-  </si>
-  <si>
-    <t>ML1570075175</t>
-  </si>
-  <si>
-    <t>Trần Thị Bích Nhi</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>5,750,000vnđ</t>
-  </si>
-  <si>
-    <t>3,646,250vnđ</t>
-  </si>
-  <si>
-    <t>ML1570075372</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mỹ Phương</t>
-  </si>
-  <si>
-    <t>8,050,000vnđ</t>
-  </si>
-  <si>
-    <t>7,354,750vnđ</t>
-  </si>
-  <si>
-    <t>ML1570267847</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Sơn</t>
-  </si>
-  <si>
-    <t>8,354,750vnđ</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>ML1570267874</t>
-  </si>
-  <si>
-    <t>7,590,000vnđ</t>
-  </si>
-  <si>
-    <t>8,398,050vnđ</t>
-  </si>
-  <si>
-    <t>ML1571365486</t>
-  </si>
-  <si>
-    <t>Trần Diễm My</t>
-  </si>
-  <si>
-    <t>4,600,000vnđ</t>
-  </si>
-  <si>
-    <t>4,117,000vnđ</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>ML1598806041</t>
-  </si>
-  <si>
-    <t>3,450,000vnđ</t>
-  </si>
-  <si>
-    <t>3,087,750vnđ</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>ML1599471056</t>
-  </si>
-  <si>
-    <t>7,204,750vnđ</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
+    <t>9,271,000vnđ</t>
   </si>
 </sst>
 </file>
@@ -553,10 +553,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,7 +564,7 @@
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -631,22 +631,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -654,25 +654,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -680,19 +680,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
@@ -709,22 +709,22 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -732,25 +732,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -758,22 +758,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
@@ -784,25 +784,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -810,25 +810,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -836,25 +836,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -862,25 +862,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -888,25 +888,129 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
